--- a/a3/perf.xlsx
+++ b/a3/perf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4540" windowWidth="16200" windowHeight="17880" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="perf" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>null likelihood</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>weirdsoft</t>
+  </si>
+  <si>
+    <t>hmm</t>
+  </si>
+  <si>
+    <t>BLEU</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>heuristic</t>
   </si>
 </sst>
 </file>
@@ -101,8 +113,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -127,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -137,6 +163,13 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -146,6 +179,13 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -502,6 +542,12 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -656,7 +702,7 @@
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0.594003839905479</v>
@@ -680,7 +726,7 @@
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0.60847058823529399</v>
@@ -704,7 +750,7 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0.61831076724693701</v>
@@ -727,7 +773,7 @@
         <v>10000</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0.62672199170124399</v>
@@ -750,7 +796,7 @@
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0.62884872824631799</v>
@@ -773,7 +819,7 @@
         <v>10000</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
         <v>0.63177381353079698</v>
@@ -796,7 +842,7 @@
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0.63410059676044295</v>
@@ -819,7 +865,7 @@
         <v>10000</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0.63644244105409098</v>
@@ -831,7 +877,7 @@
         <v>0.35937181317560601</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -842,7 +888,7 @@
         <v>10000</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0.63720269790557305</v>
@@ -854,7 +900,7 @@
         <v>0.36559139784946199</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -862,22 +908,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>0.478565471226021</v>
+        <v>0.48081714000996501</v>
       </c>
       <c r="F19">
-        <v>0.48390292223873199</v>
+        <v>0.489103516592372</v>
       </c>
       <c r="G19">
-        <v>0.51928635502840603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0.51585644696291799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -885,22 +931,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>0.48081714000996501</v>
+        <v>0.48720911041425902</v>
       </c>
       <c r="F20">
-        <v>0.489103516592372</v>
+        <v>0.50099058940069296</v>
       </c>
       <c r="G20">
-        <v>0.51585644696291799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>0.50727938991779697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -908,22 +954,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>0.48720911041425902</v>
+        <v>0.54348180779898803</v>
       </c>
       <c r="F21">
-        <v>0.50099058940069296</v>
+        <v>0.58841010401188698</v>
       </c>
       <c r="G21">
-        <v>0.50727938991779697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>0.43867414183141501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -931,22 +977,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0.54348180779898803</v>
-      </c>
-      <c r="F22">
-        <v>0.58841010401188698</v>
-      </c>
-      <c r="G22">
-        <v>0.43867414183141501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.63177381353079698</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.66220901436354596</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.35591182364729401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -954,45 +1000,131 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.63177381353079698</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.66220901436354596</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.35591182364729401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0.71176983435047902</v>
+      </c>
+      <c r="F23">
+        <v>0.71594848935116395</v>
+      </c>
+      <c r="G23">
+        <v>0.28650363245676802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0.24985754985754899</v>
+      </c>
+      <c r="F25">
+        <v>0.20975730559683001</v>
+      </c>
+      <c r="G25">
+        <v>0.76478567552902799</v>
+      </c>
+      <c r="H25">
+        <v>-462959.38295935298</v>
+      </c>
+      <c r="I25">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>0.207549857549857</v>
+      </c>
+      <c r="F26">
+        <v>0.136206042595344</v>
+      </c>
+      <c r="G26">
+        <v>0.81850244167118802</v>
+      </c>
+      <c r="H26">
+        <v>-457977.40459779499</v>
+      </c>
+      <c r="I26">
+        <v>3.5720000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="E27">
+        <v>0.221082621082621</v>
+      </c>
+      <c r="F27">
+        <v>0.16072313026250601</v>
+      </c>
+      <c r="G27">
+        <v>0.80095858202206505</v>
+      </c>
+      <c r="H27">
+        <v>-329713.23569893098</v>
+      </c>
+      <c r="I27">
+        <v>5.7729999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="E28">
+        <v>0.31153846153846099</v>
+      </c>
+      <c r="F28">
+        <v>0.30039623576027702</v>
+      </c>
+      <c r="G28">
+        <v>0.69253029480918704</v>
+      </c>
+      <c r="H28">
+        <v>-191081.35051845299</v>
+      </c>
+      <c r="I28">
+        <v>10.433999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
         <v>100000</v>
       </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>0.71176983435047902</v>
-      </c>
-      <c r="F24">
-        <v>0.71594848935116395</v>
-      </c>
-      <c r="G24">
-        <v>0.28650363245676802</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="E29">
+        <v>0.43461538461538402</v>
+      </c>
+      <c r="F29">
+        <v>0.456414066369489</v>
+      </c>
+      <c r="G29">
+        <v>0.55742448905769504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1000,25 +1132,28 @@
         <v>0.95</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31">
-        <v>0.65921979721601598</v>
+        <v>0.52108142903121901</v>
       </c>
       <c r="F31">
-        <v>0.69465081723625499</v>
+        <v>0.57578008915304602</v>
       </c>
       <c r="G31">
-        <v>0.326265598052145</v>
-      </c>
-      <c r="J31">
-        <v>0.32503025413473102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>0.45737417089348398</v>
+      </c>
+      <c r="H31">
+        <v>-468007.199981982</v>
+      </c>
+      <c r="I31">
+        <v>2.6960000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1026,24 +1161,246 @@
         <v>0.95</v>
       </c>
       <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0.52309188138065099</v>
+      </c>
+      <c r="F32">
+        <v>0.57379891035165898</v>
+      </c>
+      <c r="G32">
+        <v>0.45685179743363702</v>
+      </c>
+      <c r="H32">
+        <v>-368356.983215385</v>
+      </c>
+      <c r="I32">
+        <v>4.782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.95</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0.55813953488372003</v>
+      </c>
+      <c r="F33">
+        <v>0.622090143635463</v>
+      </c>
+      <c r="G33">
+        <v>0.41661779081133898</v>
+      </c>
+      <c r="H33">
+        <v>-302172.262945308</v>
+      </c>
+      <c r="I33">
+        <v>8.4339999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.95</v>
+      </c>
+      <c r="C34">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>0.65100893152497497</v>
+      </c>
+      <c r="F34">
+        <v>0.71272907379891004</v>
+      </c>
+      <c r="G34">
+        <v>0.32427608092026899</v>
+      </c>
+      <c r="H34">
+        <v>-182849.85858260901</v>
+      </c>
+      <c r="I34">
+        <v>15.992000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.95</v>
+      </c>
+      <c r="C35">
         <v>100000</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>0.72163495419309298</v>
-      </c>
-      <c r="F32">
-        <v>0.735512630014858</v>
-      </c>
-      <c r="G32">
-        <v>0.272596252830965</v>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>0.70938446014127099</v>
+      </c>
+      <c r="F35">
+        <v>0.75681030212976697</v>
+      </c>
+      <c r="G35">
+        <v>0.27143429487179399</v>
+      </c>
+      <c r="H35">
+        <v>-102573.40424435301</v>
+      </c>
+      <c r="I35">
+        <v>16.748000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>0.2</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0.64011585807385896</v>
+      </c>
+      <c r="F37">
+        <v>0.68548786527984096</v>
+      </c>
+      <c r="G37">
+        <v>0.34314173444210899</v>
+      </c>
+      <c r="H37">
+        <v>-467384.686968386</v>
+      </c>
+      <c r="I37">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>0.2</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>0.64288821226620196</v>
+      </c>
+      <c r="F38">
+        <v>0.68623080733036101</v>
+      </c>
+      <c r="G38">
+        <v>0.34110653863740198</v>
+      </c>
+      <c r="H38">
+        <v>-367346.36457428802</v>
+      </c>
+      <c r="I38">
+        <v>5.915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0.2</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="E39">
+        <v>0.67101789381050103</v>
+      </c>
+      <c r="F39">
+        <v>0.72065378900445698</v>
+      </c>
+      <c r="G39">
+        <v>0.31051952837140701</v>
+      </c>
+      <c r="H39">
+        <v>-275571.05093552201</v>
+      </c>
+      <c r="I39">
+        <v>11.254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="E40">
+        <v>0.74583517617573303</v>
+      </c>
+      <c r="F40">
+        <v>0.79222387320455601</v>
+      </c>
+      <c r="G40">
+        <v>0.236854264855373</v>
+      </c>
+      <c r="H40">
+        <v>-132033.518239953</v>
+      </c>
+      <c r="I40">
+        <v>19.096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+      <c r="E41">
+        <v>0.80552256532066502</v>
+      </c>
+      <c r="F41">
+        <v>0.84348687469044004</v>
+      </c>
+      <c r="G41">
+        <v>0.18024874698347801</v>
+      </c>
+      <c r="H41">
+        <v>-75368.924855253106</v>
+      </c>
+      <c r="I41">
+        <v>22.843</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/a3/perf.xlsx
+++ b/a3/perf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="4260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="perf" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>null likelihood</t>
   </si>
@@ -113,8 +113,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -153,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -170,6 +188,15 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -186,6 +213,15 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1019,8 +1055,14 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>10</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0.24985754985754899</v>
@@ -1042,8 +1084,14 @@
       <c r="A26" t="s">
         <v>12</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>100</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0.207549857549857</v>
@@ -1065,8 +1113,14 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0.221082621082621</v>
@@ -1088,8 +1142,14 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>10000</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0.31153846153846099</v>
@@ -1111,9 +1171,15 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>100000</v>
       </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
       <c r="E29">
         <v>0.43461538461538402</v>
       </c>
@@ -1123,34 +1189,40 @@
       <c r="G29">
         <v>0.55742448905769504</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>0.95</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <v>0.52108142903121901</v>
-      </c>
-      <c r="F31">
-        <v>0.57578008915304602</v>
-      </c>
-      <c r="G31">
-        <v>0.45737417089348398</v>
-      </c>
-      <c r="H31">
-        <v>-468007.199981982</v>
-      </c>
-      <c r="I31">
-        <v>2.6960000000000002</v>
+      <c r="H29">
+        <v>-102573.40424435301</v>
+      </c>
+      <c r="I29">
+        <v>16.748000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1000000</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>0.52307692307692299</v>
+      </c>
+      <c r="F30">
+        <v>0.55646359583952398</v>
+      </c>
+      <c r="G30">
+        <v>0.46473141616928898</v>
+      </c>
+      <c r="H30">
+        <v>-68005.373123723301</v>
+      </c>
+      <c r="I30">
+        <v>21.210999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1161,25 +1233,25 @@
         <v>0.95</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>0.52309188138065099</v>
+        <v>0.52108142903121901</v>
       </c>
       <c r="F32">
-        <v>0.57379891035165898</v>
+        <v>0.57578008915304602</v>
       </c>
       <c r="G32">
-        <v>0.45685179743363702</v>
+        <v>0.45737417089348398</v>
       </c>
       <c r="H32">
-        <v>-368356.983215385</v>
+        <v>-468007.199981982</v>
       </c>
       <c r="I32">
-        <v>4.782</v>
+        <v>2.6960000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1190,25 +1262,25 @@
         <v>0.95</v>
       </c>
       <c r="C33">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>30</v>
       </c>
       <c r="E33">
-        <v>0.55813953488372003</v>
+        <v>0.52309188138065099</v>
       </c>
       <c r="F33">
-        <v>0.622090143635463</v>
+        <v>0.57379891035165898</v>
       </c>
       <c r="G33">
-        <v>0.41661779081133898</v>
+        <v>0.45685179743363702</v>
       </c>
       <c r="H33">
-        <v>-302172.262945308</v>
+        <v>-368356.983215385</v>
       </c>
       <c r="I33">
-        <v>8.4339999999999993</v>
+        <v>4.782</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1219,25 +1291,25 @@
         <v>0.95</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34">
-        <v>0.65100893152497497</v>
+        <v>0.55813953488372003</v>
       </c>
       <c r="F34">
-        <v>0.71272907379891004</v>
+        <v>0.622090143635463</v>
       </c>
       <c r="G34">
-        <v>0.32427608092026899</v>
+        <v>0.41661779081133898</v>
       </c>
       <c r="H34">
-        <v>-182849.85858260901</v>
+        <v>-302172.262945308</v>
       </c>
       <c r="I34">
-        <v>15.992000000000001</v>
+        <v>8.4339999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1248,77 +1320,83 @@
         <v>0.95</v>
       </c>
       <c r="C35">
+        <v>10000</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>0.65100893152497497</v>
+      </c>
+      <c r="F35">
+        <v>0.71272907379891004</v>
+      </c>
+      <c r="G35">
+        <v>0.32427608092026899</v>
+      </c>
+      <c r="H35">
+        <v>-182849.85858260901</v>
+      </c>
+      <c r="I35">
+        <v>15.992000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>0.95</v>
+      </c>
+      <c r="C36">
         <v>100000</v>
       </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
         <v>0.70938446014127099</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>0.75681030212976697</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>0.27143429487179399</v>
       </c>
-      <c r="H35">
-        <v>-102573.40424435301</v>
-      </c>
-      <c r="I35">
-        <v>16.748000000000001</v>
+      <c r="H36">
+        <v>-103867.225619067</v>
+      </c>
+      <c r="I36">
+        <v>20.273</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>1000000</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>0.64011585807385896</v>
+        <v>0.753571428571428</v>
       </c>
       <c r="F37">
-        <v>0.68548786527984096</v>
+        <v>0.77885091629519498</v>
       </c>
       <c r="G37">
-        <v>0.34314173444210899</v>
+        <v>0.23613631780600899</v>
       </c>
       <c r="H37">
-        <v>-467384.686968386</v>
+        <v>-63896.387706943002</v>
       </c>
       <c r="I37">
-        <v>3.2149999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>0.2</v>
-      </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>0.64288821226620196</v>
-      </c>
-      <c r="F38">
-        <v>0.68623080733036101</v>
-      </c>
-      <c r="G38">
-        <v>0.34110653863740198</v>
-      </c>
-      <c r="H38">
-        <v>-367346.36457428802</v>
-      </c>
-      <c r="I38">
-        <v>5.915</v>
+        <v>25.759</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1329,22 +1407,25 @@
         <v>0.2</v>
       </c>
       <c r="C39">
-        <v>1000</v>
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>0.67101789381050103</v>
+        <v>0.64011585807385896</v>
       </c>
       <c r="F39">
-        <v>0.72065378900445698</v>
+        <v>0.68548786527984096</v>
       </c>
       <c r="G39">
-        <v>0.31051952837140701</v>
+        <v>0.34314173444210899</v>
       </c>
       <c r="H39">
-        <v>-275571.05093552201</v>
+        <v>-467384.686968386</v>
       </c>
       <c r="I39">
-        <v>11.254</v>
+        <v>3.2149999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1355,22 +1436,25 @@
         <v>0.2</v>
       </c>
       <c r="C40">
-        <v>10000</v>
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>0.74583517617573303</v>
+        <v>0.64288821226620196</v>
       </c>
       <c r="F40">
-        <v>0.79222387320455601</v>
+        <v>0.68623080733036101</v>
       </c>
       <c r="G40">
-        <v>0.236854264855373</v>
+        <v>0.34110653863740198</v>
       </c>
       <c r="H40">
-        <v>-132033.518239953</v>
+        <v>-367346.36457428802</v>
       </c>
       <c r="I40">
-        <v>19.096</v>
+        <v>5.915</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1381,23 +1465,231 @@
         <v>0.2</v>
       </c>
       <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>0.67101789381050103</v>
+      </c>
+      <c r="F41">
+        <v>0.72065378900445698</v>
+      </c>
+      <c r="G41">
+        <v>0.31051952837140701</v>
+      </c>
+      <c r="H41">
+        <v>-275571.05093552201</v>
+      </c>
+      <c r="I41">
+        <v>11.254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42">
+        <v>10000</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>0.74583517617573303</v>
+      </c>
+      <c r="F42">
+        <v>0.79222387320455601</v>
+      </c>
+      <c r="G42">
+        <v>0.236854264855373</v>
+      </c>
+      <c r="H42">
+        <v>-132033.518239953</v>
+      </c>
+      <c r="I42">
+        <v>19.096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>0.2</v>
+      </c>
+      <c r="C43">
         <v>100000</v>
       </c>
-      <c r="E41">
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
         <v>0.80552256532066502</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>0.84348687469044004</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>0.18024874698347801</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>-75368.924855253106</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>22.843</v>
       </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
+        <v>1000000</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0.82948278431957001</v>
+      </c>
+      <c r="F44">
+        <v>0.85735512630014798</v>
+      </c>
+      <c r="G44">
+        <v>0.16004466362705799</v>
+      </c>
+      <c r="H44">
+        <v>-54641.825639040799</v>
+      </c>
+      <c r="I44">
+        <v>28.745000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0.2</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>0.362710990851694</v>
+      </c>
+      <c r="F46">
+        <v>0.44774640911342201</v>
+      </c>
+      <c r="G46">
+        <v>0.60818713450292305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>0.2</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>0.36966885710604303</v>
+      </c>
+      <c r="F47">
+        <v>0.46260525012382298</v>
+      </c>
+      <c r="G47">
+        <v>0.59852529875413096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>0.41760082463600001</v>
+      </c>
+      <c r="F48">
+        <v>0.52674591381872204</v>
+      </c>
+      <c r="G48">
+        <v>0.54504619035511404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>0.2</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>30</v>
+      </c>
+      <c r="E49">
+        <v>0.536915345960572</v>
+      </c>
+      <c r="F49">
+        <v>0.700594353640416</v>
+      </c>
+      <c r="G49">
+        <v>0.40706839562674801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>0.2</v>
+      </c>
+      <c r="C50">
+        <v>100000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0.60033596071843898</v>
+      </c>
+      <c r="F50">
+        <v>0.76968796433878095</v>
+      </c>
+      <c r="G50">
+        <v>0.34159803005858802</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="D51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
